--- a/log/DailyResult/DailyResult_2024-04-03.xlsx
+++ b/log/DailyResult/DailyResult_2024-04-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,28 +1004,20 @@
       <c r="D3" t="n">
         <v>3.57</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.57</v>
       </c>
       <c r="G3" t="n">
         <v>3.57</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
+      <c r="H3" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="I3" t="n">
+        <v>236</v>
       </c>
       <c r="J3" t="n">
         <v>2024</v>
@@ -1198,10 +1190,8 @@
       <c r="BJ3" t="b">
         <v>0</v>
       </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>2443</t>
-        </is>
+      <c r="BK3" t="n">
+        <v>2443</v>
       </c>
       <c r="BL3" t="n">
         <v>0.4</v>
@@ -1215,6 +1205,892 @@
         <v>3.155649523756101</v>
       </c>
       <c r="BO3" t="n">
+        <v>4.004000825894249</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1255533</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5725117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>04/03</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>5.658152166498328</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.427233834851622</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.7690816683532935</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.7206192448502856</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.7206192448502856</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.04846242350300789</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23.37141092929917</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>24696158.75</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>14295238.16</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>72.75793850782546</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.563999999999999</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.3166143114616141</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.4100848828122016</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.2480000000000002</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.1840000000000002</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.620118904018419</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9.622237808036839</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.141762191963161</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>30.41543026706232</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-5725117</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-24397371</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.06333333333333332</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2358</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN4" t="n">
+        <v>4.115752816026249</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>17.78605926451067</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1352398</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4828011</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>236</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>04/03</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4.347257750461219</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.574028387496215</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.2267706370349956</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.1396689914894635</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.1396689914894635</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.08710164554553207</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2763226.75</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>4638635.2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-40.43017760913814</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4.206</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.552</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.152453271529407</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.09369904541194266</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1740000000000004</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.06249999999999911</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.552</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.334043804250131</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.220087608500262</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.883912391499738</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23.71134020618557</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.3900000000000001</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-4828011</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-9428289</v>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="BJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2443</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN5" t="n">
+        <v>3.155649523756101</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4.004000825894249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1255533</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5725117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>505</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>04/03</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>5.658152166498328</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.427233834851622</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.7690816683532935</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.7206192448502856</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.7206192448502856</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.04846242350300789</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23.37141092929917</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>24696158.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14295238.16</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>72.75793850782546</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.563999999999999</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.3166143114616141</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.4100848828122016</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.2480000000000002</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.1840000000000002</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.620118904018419</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.622237808036839</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3.141762191963161</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>30.41543026706232</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-5725117</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-24397371</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.06333333333333332</v>
+      </c>
+      <c r="BJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2358</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN6" t="n">
+        <v>4.115752816026249</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>17.78605926451067</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1352398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4828011</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>04/03</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024/04/03</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>4.347257750461219</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.574028387496215</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.2267706370349956</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1396689914894635</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.1396689914894635</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.08710164554553207</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2763226.75</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4638635.2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-40.43017760913814</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.206</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.552</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.152453271529407</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.09369904541194266</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.1740000000000004</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.06249999999999911</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4.552</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.334043804250131</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.220087608500262</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3.883912391499738</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23.71134020618557</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.3900000000000001</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-4828011</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-9428289</v>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="BJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN7" t="n">
+        <v>3.155649523756101</v>
+      </c>
+      <c r="BO7" t="n">
         <v>4.004000825894249</v>
       </c>
     </row>

--- a/log/DailyResult/DailyResult_2024-04-03.xlsx
+++ b/log/DailyResult/DailyResult_2024-04-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO7"/>
+  <dimension ref="A1:BQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,100 +671,110 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Change</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Change_sum</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Bar_Color</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Close_above_MA</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Close_above_MA_5days</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Analysis</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_roll</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_roll_diff</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_uptrend</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_uptrend_3days</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Weighted_Signal</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Weighted_Signa_over_threshold</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Weighted_Signal_roll</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Weighted_Signal_roll_</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Weighted_Signal_golden_cross</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>stock_number</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>interval_type</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>lower_bound</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>upper_bound</t>
         </is>
@@ -920,72 +930,78 @@
       <c r="AU2" t="n">
         <v>-24397371</v>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AV2" t="n">
+        <v>-1255533</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-4595842</v>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="inlineStr">
         <is>
           <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
         </is>
       </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.075</v>
       </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="inlineStr">
         <is>
           <t>均線:下降趨勢</t>
         </is>
       </c>
-      <c r="BF2" t="n">
+      <c r="BH2" t="n">
         <v>0.15</v>
       </c>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>0.075</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BK2" t="n">
         <v>0.06333333333333332</v>
       </c>
-      <c r="BJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
         <v>2358</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BN2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BO2" t="inlineStr">
         <is>
           <t>負區間</t>
         </is>
       </c>
-      <c r="BN2" t="n">
+      <c r="BP2" t="n">
         <v>4.115752816026249</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BQ2" t="n">
         <v>17.78605926451067</v>
       </c>
     </row>
@@ -996,28 +1012,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1352398</v>
+        <v>1255533</v>
       </c>
       <c r="C3" t="n">
-        <v>4828011</v>
+        <v>5725117</v>
       </c>
       <c r="D3" t="n">
-        <v>3.57</v>
+        <v>4.56</v>
       </c>
       <c r="E3" t="n">
-        <v>3.57</v>
+        <v>4.56</v>
       </c>
       <c r="F3" t="n">
-        <v>3.57</v>
+        <v>4.56</v>
       </c>
       <c r="G3" t="n">
-        <v>3.57</v>
+        <v>4.56</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>236</v>
+        <v>505</v>
       </c>
       <c r="J3" t="n">
         <v>2024</v>
@@ -1038,174 +1054,180 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.347257750461219</v>
+        <v>5.658152166498328</v>
       </c>
       <c r="O3" t="n">
-        <v>4.574028387496215</v>
+        <v>6.427233834851622</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2267706370349956</v>
+        <v>-0.7690816683532935</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1396689914894635</v>
+        <v>-0.7206192448502856</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1396689914894635</v>
+        <v>-0.7206192448502856</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.08710164554553207</v>
+        <v>-0.04846242350300789</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.57</v>
+        <v>4.56</v>
       </c>
       <c r="V3" t="n">
-        <v>4.86</v>
+        <v>6.38</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>23.37141092929917</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>2763226.75</v>
+        <v>24696158.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>4638635.2</v>
+        <v>14295238.16</v>
       </c>
       <c r="AB3" t="n">
-        <v>-40.43017760913814</v>
+        <v>72.75793850782546</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.206</v>
+        <v>5.563999999999999</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.552</v>
+        <v>6.382</v>
       </c>
       <c r="AF3" t="b">
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.152453271529407</v>
+        <v>0.3166143114616141</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09369904541194266</v>
+        <v>0.4100848828122016</v>
       </c>
       <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.2480000000000002</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1840000000000002</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.620118904018419</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9.622237808036839</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>3.141762191963161</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>30.41543026706232</v>
+      </c>
+      <c r="AR3" t="b">
         <v>1</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>-0.1740000000000004</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-0.06249999999999911</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.334043804250131</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.220087608500262</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.883912391499738</v>
-      </c>
-      <c r="AP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>23.71134020618557</v>
-      </c>
-      <c r="AR3" t="b">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>-0.3900000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>-4828011</v>
+        <v>-5725117</v>
       </c>
       <c r="AU3" t="n">
-        <v>-9428289</v>
-      </c>
-      <c r="AV3" t="inlineStr">
+        <v>-24397371</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-1255533</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-4595842</v>
+      </c>
+      <c r="AX3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="inlineStr">
         <is>
           <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
         </is>
       </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.1</v>
-      </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
-      <c r="BC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BC3" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="inlineStr">
         <is>
           <t>均線:下降趨勢</t>
         </is>
       </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="b">
-        <v>0</v>
-      </c>
       <c r="BH3" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.03999999999999999</v>
-      </c>
-      <c r="BJ3" t="b">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.075</v>
       </c>
       <c r="BK3" t="n">
-        <v>2443</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BM3" t="inlineStr">
+        <v>0.06333333333333332</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2358</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BO3" t="inlineStr">
         <is>
           <t>負區間</t>
         </is>
       </c>
-      <c r="BN3" t="n">
-        <v>3.155649523756101</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>4.004000825894249</v>
+      <c r="BP3" t="n">
+        <v>4.115752816026249</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>17.78605926451067</v>
       </c>
     </row>
     <row r="4">
@@ -1223,20 +1245,28 @@
       <c r="D4" t="n">
         <v>4.56</v>
       </c>
-      <c r="E4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.56</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>4.56</v>
       </c>
-      <c r="H4" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>505</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>2024</v>
@@ -1358,740 +1388,81 @@
       <c r="AU4" t="n">
         <v>-24397371</v>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AV4" t="n">
+        <v>-1255533</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-4595842</v>
+      </c>
+      <c r="AX4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="inlineStr">
         <is>
           <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
         </is>
       </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.075</v>
       </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="inlineStr">
         <is>
           <t>均線:下降趨勢</t>
         </is>
       </c>
-      <c r="BF4" t="n">
+      <c r="BH4" t="n">
         <v>0.15</v>
       </c>
-      <c r="BG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>0.075</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BK4" t="n">
         <v>0.06333333333333332</v>
       </c>
-      <c r="BJ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>2358</v>
-      </c>
-      <c r="BL4" t="n">
+      <c r="BL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="BN4" t="n">
         <v>0.99</v>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>負區間</t>
         </is>
       </c>
-      <c r="BN4" t="n">
+      <c r="BP4" t="n">
         <v>4.115752816026249</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BQ4" t="n">
         <v>17.78605926451067</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1352398</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4828011</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="I5" t="n">
-        <v>236</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>04/03</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>4.347257750461219</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.574028387496215</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.2267706370349956</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.1396689914894635</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.1396689914894635</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-0.08710164554553207</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2763226.75</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>4638635.2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-40.43017760913814</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4.206</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.152453271529407</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.09369904541194266</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>-0.1740000000000004</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-0.06249999999999911</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.334043804250131</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.220087608500262</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>3.883912391499738</v>
-      </c>
-      <c r="AP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23.71134020618557</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>-0.3900000000000001</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>-4828011</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>-9428289</v>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0.03999999999999999</v>
-      </c>
-      <c r="BJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>2443</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>負區間</t>
-        </is>
-      </c>
-      <c r="BN5" t="n">
-        <v>3.155649523756101</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>4.004000825894249</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1255533</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5725117</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>505</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>04/03</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>5.658152166498328</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6.427233834851622</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-0.7690816683532935</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.7206192448502856</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.7206192448502856</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-0.04846242350300789</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="V6" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>23.37141092929917</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>24696158.75</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14295238.16</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>72.75793850782546</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.563999999999999</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6.382</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.3166143114616141</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.4100848828122016</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>-0.2480000000000002</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>-0.1840000000000002</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>6.382</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.620118904018419</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9.622237808036839</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>3.141762191963161</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>30.41543026706232</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>-5725117</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>-24397371</v>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="BF6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.06333333333333332</v>
-      </c>
-      <c r="BJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>2358</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>負區間</t>
-        </is>
-      </c>
-      <c r="BN6" t="n">
-        <v>4.115752816026249</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>17.78605926451067</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1352398</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4828011</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>04/03</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024/04/03</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>4.347257750461219</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4.574028387496215</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-0.2267706370349956</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.1396689914894635</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0.1396689914894635</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-0.08710164554553207</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2763226.75</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4638635.2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-40.43017760913814</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4.206</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.152453271529407</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.09369904541194266</v>
-      </c>
-      <c r="AI7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>-0.1740000000000004</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>-0.06249999999999911</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.334043804250131</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.220087608500262</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3.883912391499738</v>
-      </c>
-      <c r="AP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23.71134020618557</v>
-      </c>
-      <c r="AR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>-0.3900000000000001</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>-4828011</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>-9428289</v>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0.03999999999999999</v>
-      </c>
-      <c r="BJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>2443</t>
-        </is>
-      </c>
-      <c r="BL7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>負區間</t>
-        </is>
-      </c>
-      <c r="BN7" t="n">
-        <v>3.155649523756101</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>4.004000825894249</v>
       </c>
     </row>
   </sheetData>
